--- a/shared/ojb-resources-common/src/main/resources/service-specifications/Criminal_History_Update_Reporting_Service/artifacts/service_model/information_model/Criminal_History_Update_Report-IEPD/documentation/Criminal_History_Update_Mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/service-specifications/Criminal_History_Update_Reporting_Service/artifacts/service_model/information_model/Criminal_History_Update_Report-IEPD/documentation/Criminal_History_Update_Mapping.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="19860" windowHeight="10275" tabRatio="563"/>
+    <workbookView xWindow="4260" yWindow="3180" windowWidth="30720" windowHeight="16080" tabRatio="563"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="165">
   <si>
     <t>Data Item</t>
   </si>
@@ -180,23 +185,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>up to 2 codes allowed per CTN (charge) See notes above on CTN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Code Values: A=Attempt, C=Conspiracy, F=Firearm, D=Domestic Violence, O=Other, S=Solicitation
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note:  up to 2 codes allowed per CTN (charge) See notes above on CTN</t>
     </r>
   </si>
   <si>
@@ -405,20 +393,6 @@
     <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Charge/j:ChargeTrackingIdentification/nc:IdentificationID</t>
   </si>
   <si>
-    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Organization/[@s:id/pdr-report-doc:ProsecutionDecisionRecordingReport/j:CaseProsecutionAttorney/pdr-report-ext:ProsecutionAttorneyOrganization/@s:ref]/j:OrganizationAugmentation/j:OrganizationORIIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@s:id/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@s:ref]/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person/nc:PersonName/nc:PersonGivenName
-/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@s:id/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@s:ref]/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person/nc:PersonName/nc:PersonMiddleName
-/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@s:id/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@s:ref]/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person/nc:PersonName/nc:PersonSurName</t>
-  </si>
-  <si>
-    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@s:id/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@s:ref]/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person/nc:PersonSSNIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@s:id/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@s:ref]/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person/j:PersonAugmentation/j:DriverLicense/j:DriverLicenseCardIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
     <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Charge/j:ChargeStatute/j:StatuteCodeIdentification/nc:IdentificationID</t>
   </si>
   <si>
@@ -428,21 +402,6 @@
     <t>/cdr-report-doc:CourtDispositionRecordingReport/j:Charge/j:ChargeTrackingIdentification/nc:IdentificationID</t>
   </si>
   <si>
-    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@s:id/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@s:ref]/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person/nc:PersonBirthDate/nc:Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/cdr-report-doc:CourtDispositionRecordingReport/nc:Person[@s:id/cdr-report-doc:CourtDispositionRecordingReport/j:Subject/nc:RoleOfPerson/@s:ref]/cdr-report-doc:CourtDispositionRecordingReport/nc:Person/nc:PersonName/nc:PersonGivenName
-/cdr-report-doc:CourtDispositionRecordingReport/nc:Person[@s:id/cdr-report-doc:CourtDispositionRecordingReport/j:Subject/nc:RoleOfPerson/@s:ref]/cdr-report-doc:CourtDispositionRecordingReport/nc:Person/nc:PersonName/nc:PersonMiddleName
-/cdr-report-doc:CourtDispositionRecordingReport/nc:Person[@s:id/cdr-report-doc:CourtDispositionRecordingReport/j:Subject/nc:RoleOfPerson/@s:ref]/cdr-report-doc:CourtDispositionRecordingReport/nc:Person/nc:PersonName/nc:PersonSurName
-</t>
-  </si>
-  <si>
-    <t>/cdr-report-doc:CourtDispositionRecordingReport/nc:Person[@s:id/cdr-report-doc:CourtDispositionRecordingReport/j:Subject/nc:RoleOfPerson/@s:ref]/cdr-report-doc:CourtDispositionRecordingReport/nc:Person/nc:PersonBirthDate/nc:Date</t>
-  </si>
-  <si>
-    <t>/cdr-report-doc:CourtDispositionRecordingReport/nc:Person[@s:id/cdr-report-doc:CourtDispositionRecordingReport/j:Subject/nc:RoleOfPerson/@s:ref]/cdr-report-doc:CourtDispositionRecordingReport/nc:Person/nc:PersonSSNIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
     <t>/cdr-report-doc:CourtDispositionRecordingReport/j:Charge/j:ChargeStatute/j:StatuteCodeIdentification/nc:IdentificationID</t>
   </si>
   <si>
@@ -452,12 +411,6 @@
     <t>/cdr-report-doc:CourtDispositionRecordingReport/j:Sentence/j:SentenceCondition/nc:ActivityDescriptionText</t>
   </si>
   <si>
-    <t>/cdr-report-doc:CourtDispositionRecordingReport/j:Sentence/j:SentenceIssuerEntity/nc:EntityOrganization[@s:id/cdr-report-doc:CourtDispositionRecordingReport/j:Sentence/j:SentenceIssuerEntity/nc:EntityOrganization/@s:ref]/cdr-report-doc:CourtDispositionRecordingReport/nc:Organization/j:OrganizationAugmentation/j:OrganizationORIIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>/cdr-report-doc:CourtDispositionRecordingReport/nc:Disposition/nc:DispositionEntity/nc:EntityOrganization[@s:id/cdr-report-doc:CourtDispositionRecordingReport/nc:Disposition/nc:DispositionEntity/nc:EntityOrganization/@s:ref]/cdr-report-doc:CourtDispositionRecordingReport/nc:Organization/j:OrganizationAugmentation/j:OrganizationORIIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
     <t>/cdr-report-doc:CourtDispositionRecordingReport/nc:Disposition/nc:DispositionDate/nc:Date</t>
   </si>
   <si>
@@ -476,18 +429,6 @@
     <t>/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/crimhistory-update-ext:CycleTrackingIdentifierAssignment/j:Charge/j:ChargeTrackingIdentification/nc:IdentificationID</t>
   </si>
   <si>
-    <t>/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/nc:Organization[@s:id=/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/crimhistory-update-ext:CycleTrackingIdentifierAssignment/j:OriginatorOrganization/@s:ref]/j:OrganizationAugmentation/j:OrganizationORIIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/nc:Organization[@s:id=/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/crimhistory-update-ext:CycleTrackingIdentifierAssignment/j:OriginatorOrganization/@s:ref]/nc:OrganizationName</t>
-  </si>
-  <si>
-    <t>/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/nc:Organization[@s:id=/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/crimhistory-update-ext:CycleTrackingIdentifierAssignment/j:CaseProsecutionAttorney/crimhistory-update-ext:ProsecutionAttorneyOrganization/@s:ref]/j:OrganizationAugmentation/j:OrganizationORIIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/nc:Organization[@s:id=/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/crimhistory-update-ext:CycleTrackingIdentifierAssignment/j:CaseProsecutionAttorney/crimhistory-update-ext:ProsecutionAttorneyOrganization/@s:ref]/nc:OrganizationName</t>
-  </si>
-  <si>
     <t>/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/crimhistory-update-ext:CycleTrackingIdentifierAssignment/nc:Case/j:ActivityAugmentation/j:CaseNumberText</t>
   </si>
   <si>
@@ -495,14 +436,6 @@
   </si>
   <si>
     <t>/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/crimhistory-update-ext:CycleTrackingIdentifierAssignment/j:Offense/nc:ActivityDate/nc:Date</t>
-  </si>
-  <si>
-    <t>/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/nc:Person[@s:id=/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/crimhistory-update-ext:CycleTrackingIdentifierAssignment/j:Subject/nc:RoleOfPerson/@s:ref]/nc:PersonName/nc:PersonGivenName
-/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/nc:Person[@s:id=/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/crimhistory-update-ext:CycleTrackingIdentifierAssignment/j:Subject/nc:RoleOfPerson/@s:ref]/nc:PersonName/nc:PersonMiddleName
-/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/nc:Person[@s:id=/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/crimhistory-update-ext:CycleTrackingIdentifierAssignment/j:Subject/nc:RoleOfPerson/@s:ref]/nc:PersonName/nc:PersonSurName</t>
-  </si>
-  <si>
-    <t>/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/nc:Person[@s:id=/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/crimhistory-update-ext:CycleTrackingIdentifierAssignment/j:Subject/nc:RoleOfPerson/@s:ref]/nc:PersonBirthDate/nc:Date</t>
   </si>
   <si>
     <t>/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/crimhistory-update-ext:CycleTrackingIdentifierAssignment/j:Charge/j:ChargeStatute/j:StatuteCodeIdentification/nc:IdentificationID</t>
@@ -533,92 +466,163 @@
     <t>/cdr-report-doc:CourtDispositionRecordingReport/j:Sentence/j:SentenceGroupingText</t>
   </si>
   <si>
-    <t>Notes:
+    <t>SID</t>
+  </si>
+  <si>
+    <t>State Identification Number</t>
+  </si>
+  <si>
+    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Charge/pdr-report-ext:ChargeToCourtIndicator</t>
+  </si>
+  <si>
+    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Charge/pdr-report-ext:EndProsecutorChargeCycleIndicator</t>
+  </si>
+  <si>
+    <t>Sentence Fee</t>
+  </si>
+  <si>
+    <t>Sentence Term</t>
+  </si>
+  <si>
+    <t>Sentence Restitution</t>
+  </si>
+  <si>
+    <t>/cdr-report-doc:CourtDispositionRecordingReport/j:Sentence/j:SentenceCondition/nc:ConditionDisciplinaryAction/nc:DisciplinaryActionFee/nc:ObligationDueAmount/nc:Amount</t>
+  </si>
+  <si>
+    <t>/cdr-report-doc:CourtDispositionRecordingReport/j:Sentence/j:SentenceCondition/nc:ConditionDisciplinaryAction/nc:DisciplinaryActionRestitution/nc:ObligationDueAmount/nc:Amount</t>
+  </si>
+  <si>
+    <t>/cdr-report-doc:CourtDispositionRecordingReport/j:Sentence/j:SentenceTerm/j:TermDuration</t>
+  </si>
+  <si>
+    <t>Suspended Sentence Term Remaining</t>
+  </si>
+  <si>
+    <t>Life Sentence Indicator</t>
+  </si>
+  <si>
+    <t>/cdr-report-doc:CourtDispositionRecordingReport/j:Sentence/j:SentenceTerm/j:TermLifeIndicator</t>
+  </si>
+  <si>
+    <t>Fingerprint ID</t>
+  </si>
+  <si>
+    <t>Fingerprint Number</t>
+  </si>
+  <si>
+    <t>/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/nc:Organization[@structures:id=/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/crimhistory-update-ext:CycleTrackingIdentifierAssignment/j:OriginatorOrganization/@structures:ref]/j:OrganizationAugmentation/j:OrganizationORIIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/nc:Organization[@structures:id=/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/crimhistory-update-ext:CycleTrackingIdentifierAssignment/j:OriginatorOrganization/@structures:ref]/nc:OrganizationName</t>
+  </si>
+  <si>
+    <t>/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/nc:Organization[@structures:id=/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/crimhistory-update-ext:CycleTrackingIdentifierAssignment/j:CaseProsecutionAttorney/crimhistory-update-ext:ProsecutionAttorneyOrganization/@structures:ref]/j:OrganizationAugmentation/j:OrganizationORIIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/nc:Organization[@structures:id=/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/crimhistory-update-ext:CycleTrackingIdentifierAssignment/j:CaseProsecutionAttorney/crimhistory-update-ext:ProsecutionAttorneyOrganization/@structures:ref]/nc:OrganizationName</t>
+  </si>
+  <si>
+    <t>/cdr-report-doc:CourtDispositionRecordingReport/nc:Disposition/me_disposition_codestructures:CourtActionCode</t>
+  </si>
+  <si>
+    <t>/cdr-report-doc:CourtDispositionRecordingReport/j:Sentence/me_disposition_codestructures:SentenceTermCategoryCode</t>
+  </si>
+  <si>
+    <t>/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/nc:Person[@structures:id=/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/crimhistory-update-ext:CycleTrackingIdentifierAssignment/j:Subject/nc:RoleOfPerson/@structures:ref]/nc:PersonName/nc:PersonGivenName
+/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/nc:Person[@structures:id=/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/crimhistory-update-ext:CycleTrackingIdentifierAssignment/j:Subject/nc:RoleOfPerson/@structures:ref]/nc:PersonName/nc:PersonMiddleName
+/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/nc:Person[@structures:id=/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/crimhistory-update-ext:CycleTrackingIdentifierAssignment/j:Subject/nc:RoleOfPerson/@structures:ref]/nc:PersonName/nc:PersonSurName</t>
+  </si>
+  <si>
+    <t>/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/nc:Person[@structures:id=/crimhistory-update-doc:CycleTrackingIdentifierAssignmentReport/crimhistory-update-ext:CycleTrackingIdentifierAssignment/j:Subject/nc:RoleOfPerson/@structures:ref]/nc:PersonBirthDate/nc:Date</t>
+  </si>
+  <si>
+    <t>Code Valuestructures: A=Attempt, C=Conspiracy, F=Firearm, D=Domestic Violence, O=Other, S=Solicitation
+Note:  up to 2 codes allowed per CTN (charge) See notes above on CTN</t>
+  </si>
+  <si>
+    <t>Notestructures:
 Remove Chargesubject from NIEM</t>
   </si>
   <si>
-    <t>SID</t>
-  </si>
-  <si>
-    <t>State Identification Number</t>
-  </si>
-  <si>
-    <t>/cdr-report-doc:CourtDispositionRecordingReport/nc:Person[@s:id/cdr-report-doc:CourtDispositionRecordingReport/j:Subject/nc:RoleOfPerson/@s:ref]/cdr-report-doc:CourtDispositionRecordingReport/nc:Person/nc:PersonStateIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Location[@s:id/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:PersonResidenceAssociation/nc:Location/@s:ref]/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Location/nc:Address/nc:LocationStreet/nc:StreetFullText
-/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Location[@s:id/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:PersonResidenceAssociation/nc:Location/@s:ref]/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Location/nc:Address/nc:LocationCityName
-/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Location[@s:id/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:PersonResidenceAssociation/nc:Location/@s:ref]/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Location/nc:Address/nc-3.0.1:LocationStateUSPostalServiceCode
-/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Location[@s:id/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:PersonResidenceAssociation/nc:Location/@s:ref]/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Location/nc:Address/nc:LocationPostalExtensionCode</t>
-  </si>
-  <si>
-    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@s:id/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@s:ref]/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person/j:PersonSexCode</t>
-  </si>
-  <si>
-    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@s:id/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@s:ref]/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person/j:PersonRaceCode</t>
-  </si>
-  <si>
-    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@s:id/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@s:ref]/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person/nc:PersonHeightMeasure/nc:MeasureValueText
-/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@s:id/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@s:ref]/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person/nc:PersonHeightMeasure/nc:MeasureUnitText</t>
-  </si>
-  <si>
-    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@s:id/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@s:ref]/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person/nc:PersonWeightMeasure/nc:MeasureValueText
-/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@s:id/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@s:ref]/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person/nc:PersonWeightMeasure/nc:MeasureUnitText</t>
-  </si>
-  <si>
-    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@s:id/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@s:ref]/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person/j:PersonEyeColorCode</t>
-  </si>
-  <si>
-    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@s:id/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@s:ref]/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person/j:PersonHairColorCode</t>
-  </si>
-  <si>
-    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@s:id/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@s:ref]/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person/nc:PersonStateIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>/cdr-report-doc:CourtDispositionRecordingReport/nc:Disposition/me_disposition_codes:CourtActionCode</t>
-  </si>
-  <si>
-    <t>/cdr-report-doc:CourtDispositionRecordingReport/j:Sentence/me_disposition_codes:SentenceTermCategoryCode</t>
-  </si>
-  <si>
-    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Charge/pdr-report-ext:ChargeToCourtIndicator</t>
-  </si>
-  <si>
-    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Charge/pdr-report-ext:EndProsecutorChargeCycleIndicator</t>
-  </si>
-  <si>
-    <t>Sentence Fee</t>
-  </si>
-  <si>
-    <t>Sentence Term</t>
-  </si>
-  <si>
-    <t>Sentence Restitution</t>
-  </si>
-  <si>
-    <t>/cdr-report-doc:CourtDispositionRecordingReport/j:Sentence/j:SentenceCondition/nc:ConditionDisciplinaryAction/nc:DisciplinaryActionFee/nc:ObligationDueAmount/nc:Amount</t>
-  </si>
-  <si>
-    <t>/cdr-report-doc:CourtDispositionRecordingReport/j:Sentence/j:SentenceCondition/nc:ConditionDisciplinaryAction/nc:DisciplinaryActionRestitution/nc:ObligationDueAmount/nc:Amount</t>
-  </si>
-  <si>
-    <t>/cdr-report-doc:CourtDispositionRecordingReport/j:Sentence/j:SentenceTerm/j:TermDuration</t>
-  </si>
-  <si>
-    <t>Suspended Sentence Term Remaining</t>
-  </si>
-  <si>
-    <t>Life Sentence Indicator</t>
-  </si>
-  <si>
-    <t>/cdr-report-doc:CourtDispositionRecordingReport/j:Sentence/j:SentenceTerm/j:TermLifeIndicator</t>
+    <t>/cdr-report-doc:CourtDispositionRecordingReport/nc:Person[@structures:id=/cdr-report-doc:CourtDispositionRecordingReport/j:Subject/nc:RoleOfPerson/@structures:ref]/nc:PersonSSNIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Organization/[@structures:id=/pdr-report-doc:ProsecutionDecisionRecordingReport/j:CaseProsecutionAttorney/pdr-report-ext:ProsecutionAttorneyOrganization/@structures:ref]/j:OrganizationAugmentation/j:OrganizationORIIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/cdr-report-doc:CourtDispositionRecordingReport/nc:Disposition/nc:DispositionEntity/nc:EntityOrganization[@structures:id=/cdr-report-doc:CourtDispositionRecordingReport/nc:Disposition/nc:DispositionEntity/nc:EntityOrganization/@structures:ref]/cdr-report-doc:CourtDispositionRecordingReport/nc:Organization/j:OrganizationAugmentation/j:OrganizationORIIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/cdr-report-doc:CourtDispositionRecordingReport/j:Sentence/j:SentenceIssuerEntity/nc:EntityOrganization[@structures:id=/cdr-report-doc:CourtDispositionRecordingReport/j:Sentence/j:SentenceIssuerEntity/nc:EntityOrganization/@structures:ref]/cdr-report-doc:CourtDispositionRecordingReport/nc:Organization/j:OrganizationAugmentation/j:OrganizationORIIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/cdr-report-doc:CourtDispositionRecordingReport/nc:Person[@structures:id=/cdr-report-doc:CourtDispositionRecordingReport/j:Subject/nc:RoleOfPerson/@structures:ref]/nc:PersonName/nc:PersonGivenName
+/cdr-report-doc:CourtDispositionRecordingReport/nc:Person[@structures:id=/cdr-report-doc:CourtDispositionRecordingReport/j:Subject/nc:RoleOfPerson/@structures:ref]/nc:PersonName/nc:PersonMiddleName
+/cdr-report-doc:CourtDispositionRecordingReport/nc:Person[@structures:id=/cdr-report-doc:CourtDispositionRecordingReport/j:Subject/nc:RoleOfPerson/@structures:ref]/nc:PersonName/nc:PersonSurName
+</t>
+  </si>
+  <si>
+    <t>/cdr-report-doc:CourtDispositionRecordingReport/nc:Person[@structures:id=/cdr-report-doc:CourtDispositionRecordingReport/j:Subject/nc:RoleOfPerson/@structures:ref]/nc:PersonBirthDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/cdr-report-doc:CourtDispositionRecordingReport/nc:Person[@structures:id=/cdr-report-doc:CourtDispositionRecordingReport/j:Subject/nc:RoleOfPerson/@structures:ref]/nc:PersonStateIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/cdr-report-doc:CourtDispositionRecordingReport/nc:Person[@structures:id=/cdr-report-doc:CourtDispositionRecordingReport/j:Subject/nc:RoleOfPerson/@structures:ref]/j:PersonAugmentation/j:PersonStateFingerprintIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Location[@structures:id=/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:PersonResidenceAssociation/nc:Location/@structures:ref]/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Location/nc:Address/nc:LocationStreet/nc:StreetFullText
+/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Location[@structures:id=/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:PersonResidenceAssociation/nc:Location/@structures:ref]/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Location/nc:Address/nc:LocationCityName
+/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Location[@structures:id=/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:PersonResidenceAssociation/nc:Location/@structures:ref]/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Location/nc:Address/nc-3.0.1:LocationStateUSPostalServiceCode
+/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Location[@structures:id=/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:PersonResidenceAssociation/nc:Location/@structures:ref]/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Location/nc:Address/nc:LocationPostalExtensionCode</t>
+  </si>
+  <si>
+    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@structures:id=/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@structures:ref]/nc:PersonName/nc:PersonGivenName
+/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@structures:id=/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@structures:ref]/nc:PersonName/nc:PersonMiddleName
+/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@structures:id=/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@structures:ref]/nc:PersonName/nc:PersonSurName</t>
+  </si>
+  <si>
+    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@structures:id=/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@structures:ref]/nc:PersonBirthDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@structures:id=/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@structures:ref]/nc:PersonSSNIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@structures:id=/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@structures:ref]/nc:PersonStateIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@structures:id=/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@structures:ref]/j:PersonAugmentation/j:PersonStateFingerprintIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@structures:id=/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@structures:ref]/j:PersonAugmentation/j:DriverLicense/j:DriverLicenseCardIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@structures:id=/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@structures:ref]/j:PersonSexCode</t>
+  </si>
+  <si>
+    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@structures:id=/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@structures:ref]/j:PersonRaceCode</t>
+  </si>
+  <si>
+    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@structures:id=/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@structures:ref]/nc:PersonHeightMeasure/nc:MeasureValueText
+/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@structures:id=/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@structures:ref]/nc:PersonHeightMeasure/nc:MeasureUnitText</t>
+  </si>
+  <si>
+    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@structures:id=/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@structures:ref]/nc:PersonWeightMeasure/nc:MeasureValueText
+/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@structures:id=/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@structures:ref]/nc:PersonWeightMeasure/nc:MeasureUnitText</t>
+  </si>
+  <si>
+    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@structures:id=/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@structures:ref]/j:PersonEyeColorCode</t>
+  </si>
+  <si>
+    <t>/pdr-report-doc:ProsecutionDecisionRecordingReport/nc:Person[@structures:id=/pdr-report-doc:ProsecutionDecisionRecordingReport/j:Subject/nc:RoleOfPerson/@structures:ref]/j:PersonHairColorCode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,6 +690,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -717,29 +737,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,29 +767,33 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -835,7 +859,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1135,37 +1163,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="F30" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="126.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="166.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="126.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="166.83203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="180" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="159.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="159.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1">
       <c r="A1" s="18" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" s="20"/>
       <c r="G1" s="21"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="15">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1179,16 +1207,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>76</v>
-      </c>
       <c r="G2" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="10" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1196,20 +1224,20 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1220,19 +1248,19 @@
         <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="28">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1244,10 +1272,10 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="28">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1262,10 +1290,10 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="42">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1276,43 +1304,43 @@
         <v>32</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="47.25" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="47.25" customHeight="1">
       <c r="A9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="5" customFormat="1" ht="28">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -1327,10 +1355,10 @@
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="5" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
@@ -1341,14 +1369,14 @@
         <v>34</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1363,10 +1391,10 @@
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="5" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1381,10 +1409,10 @@
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1" ht="42">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -1393,208 +1421,208 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="28">
       <c r="A15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="D15" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1">
+      <c r="A16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="F16" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1">
       <c r="A17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="7" customFormat="1">
       <c r="A18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="7" customFormat="1">
       <c r="A19" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="7" customFormat="1">
       <c r="A20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="4"/>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="7" customFormat="1">
       <c r="A21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="7" customFormat="1">
       <c r="A22" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="7" customFormat="1">
       <c r="A23" s="7" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" s="7" customFormat="1">
+      <c r="A24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" s="7" customFormat="1">
+      <c r="A25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" s="7" customFormat="1">
+      <c r="A26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" s="7" customFormat="1">
+      <c r="A27" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" s="7" customFormat="1">
+      <c r="A28" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="B28" s="4"/>
       <c r="E28" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="7" customFormat="1">
       <c r="A29" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="7" customFormat="1">
       <c r="A30" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" ht="257.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="5" customFormat="1" ht="112">
       <c r="A31" s="5" t="s">
         <v>25</v>
       </c>
@@ -1605,16 +1633,16 @@
         <v>11</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="5" customFormat="1" ht="28">
       <c r="A32" s="5" t="s">
         <v>27</v>
       </c>
@@ -1628,212 +1656,226 @@
         <v>35</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="5" customFormat="1" ht="28">
       <c r="A33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="5" customFormat="1" ht="28">
+      <c r="A34" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="5" customFormat="1" ht="28">
+      <c r="A35" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="5" customFormat="1" ht="28">
+      <c r="A36" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F33" s="8" t="s">
+      <c r="F36" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="5" customFormat="1" ht="154">
+      <c r="A37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="5" customFormat="1" ht="28">
+      <c r="A38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="5" customFormat="1" ht="28">
+      <c r="A39" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="5" customFormat="1" ht="70">
+      <c r="A40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="5" customFormat="1" ht="70">
+      <c r="A41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="5" customFormat="1" ht="70" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="5" customFormat="1" ht="70" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="5" customFormat="1" ht="56.25" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="5" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="5" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="5" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="5" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="5" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="5" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" s="8"/>
+      <c r="F44" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="G44" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="5" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="5" customFormat="1" ht="37.5" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="5" customFormat="1" ht="54" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="5" customFormat="1">
       <c r="A47" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="12" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="5" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="12" customFormat="1" ht="93" customHeight="1">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1842,7 +1884,12 @@
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="81" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup scale="81" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1852,9 +1899,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1864,8 +1916,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>